--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam12-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam12-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.654681666666667</v>
+        <v>6.375213</v>
       </c>
       <c r="H2">
-        <v>10.964045</v>
+        <v>19.125639</v>
       </c>
       <c r="I2">
-        <v>0.0410343331141888</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="J2">
-        <v>0.04103433311418879</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>346.4632774524317</v>
+        <v>1127.488915635732</v>
       </c>
       <c r="R2">
-        <v>3118.169497071885</v>
+        <v>10147.40024072159</v>
       </c>
       <c r="S2">
-        <v>0.006901825349061625</v>
+        <v>0.01947465472977479</v>
       </c>
       <c r="T2">
-        <v>0.006901825349061625</v>
+        <v>0.01947465472977479</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.654681666666667</v>
+        <v>6.375213</v>
       </c>
       <c r="H3">
-        <v>10.964045</v>
+        <v>19.125639</v>
       </c>
       <c r="I3">
-        <v>0.0410343331141888</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="J3">
-        <v>0.04103433311418879</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>532.2728180462177</v>
+        <v>928.4947086102478</v>
       </c>
       <c r="R3">
-        <v>4790.45536241596</v>
+        <v>8356.452377492231</v>
       </c>
       <c r="S3">
-        <v>0.0106032998799194</v>
+        <v>0.01603750920993478</v>
       </c>
       <c r="T3">
-        <v>0.0106032998799194</v>
+        <v>0.01603750920993478</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.654681666666667</v>
+        <v>6.375213</v>
       </c>
       <c r="H4">
-        <v>10.964045</v>
+        <v>19.125639</v>
       </c>
       <c r="I4">
-        <v>0.0410343331141888</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="J4">
-        <v>0.04103433311418879</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>265.9730057693378</v>
+        <v>535.67799484914</v>
       </c>
       <c r="R4">
-        <v>2393.75705192404</v>
+        <v>4821.10195364226</v>
       </c>
       <c r="S4">
-        <v>0.005298394816567437</v>
+        <v>0.009252546833369924</v>
       </c>
       <c r="T4">
-        <v>0.005298394816567436</v>
+        <v>0.009252546833369924</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.654681666666667</v>
+        <v>6.375213</v>
       </c>
       <c r="H5">
-        <v>10.964045</v>
+        <v>19.125639</v>
       </c>
       <c r="I5">
-        <v>0.0410343331141888</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="J5">
-        <v>0.04103433311418879</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>423.3433096161528</v>
+        <v>541.4390347042171</v>
       </c>
       <c r="R5">
-        <v>3810.089786545375</v>
+        <v>4872.951312337954</v>
       </c>
       <c r="S5">
-        <v>0.008433337025352036</v>
+        <v>0.009352054917667886</v>
       </c>
       <c r="T5">
-        <v>0.008433337025352036</v>
+        <v>0.009352054917667886</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.654681666666667</v>
+        <v>6.375213</v>
       </c>
       <c r="H6">
-        <v>10.964045</v>
+        <v>19.125639</v>
       </c>
       <c r="I6">
-        <v>0.0410343331141888</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="J6">
-        <v>0.04103433311418879</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>212.6545455046233</v>
+        <v>407.828901703041</v>
       </c>
       <c r="R6">
-        <v>1913.89090954161</v>
+        <v>3670.460115327369</v>
       </c>
       <c r="S6">
-        <v>0.004236248480788846</v>
+        <v>0.007044261756676981</v>
       </c>
       <c r="T6">
-        <v>0.004236248480788846</v>
+        <v>0.007044261756676981</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.654681666666667</v>
+        <v>6.375213</v>
       </c>
       <c r="H7">
-        <v>10.964045</v>
+        <v>19.125639</v>
       </c>
       <c r="I7">
-        <v>0.0410343331141888</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="J7">
-        <v>0.04103433311418879</v>
+        <v>0.07294668576767277</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>279.1668914404389</v>
+        <v>682.332976062153</v>
       </c>
       <c r="R7">
-        <v>2512.50202296395</v>
+        <v>6140.996784559377</v>
       </c>
       <c r="S7">
-        <v>0.005561227562499447</v>
+        <v>0.01178565832024841</v>
       </c>
       <c r="T7">
-        <v>0.005561227562499447</v>
+        <v>0.01178565832024841</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>229.881485</v>
       </c>
       <c r="I8">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411343</v>
       </c>
       <c r="J8">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411342</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>7264.24350855291</v>
+        <v>13551.9041349354</v>
       </c>
       <c r="R8">
-        <v>65378.1915769762</v>
+        <v>121967.1372144186</v>
       </c>
       <c r="S8">
-        <v>0.1447095356187365</v>
+        <v>0.2340764953862668</v>
       </c>
       <c r="T8">
-        <v>0.1447095356187365</v>
+        <v>0.2340764953862667</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>229.881485</v>
       </c>
       <c r="I9">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411343</v>
       </c>
       <c r="J9">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411342</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>11160.0842424123</v>
@@ -1013,10 +1013,10 @@
         <v>100440.7581817107</v>
       </c>
       <c r="S9">
-        <v>0.2223177962418244</v>
+        <v>0.1927635689913934</v>
       </c>
       <c r="T9">
-        <v>0.2223177962418244</v>
+        <v>0.1927635689913934</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>229.881485</v>
       </c>
       <c r="I10">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411343</v>
       </c>
       <c r="J10">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411342</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>5576.616069723258</v>
+        <v>6438.605943453323</v>
       </c>
       <c r="R10">
-        <v>50189.54462750932</v>
+        <v>57947.4534910799</v>
       </c>
       <c r="S10">
-        <v>0.1110906484375816</v>
+        <v>0.1112114061175747</v>
       </c>
       <c r="T10">
-        <v>0.1110906484375816</v>
+        <v>0.1112114061175747</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>229.881485</v>
       </c>
       <c r="I11">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411343</v>
       </c>
       <c r="J11">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411342</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>8876.175597544152</v>
+        <v>6507.851023161734</v>
       </c>
       <c r="R11">
-        <v>79885.58037789738</v>
+        <v>58570.6592084556</v>
       </c>
       <c r="S11">
-        <v>0.1768205109422123</v>
+        <v>0.112407448047882</v>
       </c>
       <c r="T11">
-        <v>0.1768205109422123</v>
+        <v>0.112407448047882</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>229.881485</v>
       </c>
       <c r="I12">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411343</v>
       </c>
       <c r="J12">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411342</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>4458.695920401903</v>
+        <v>4901.917972487826</v>
       </c>
       <c r="R12">
-        <v>40128.26328361713</v>
+        <v>44117.26175239043</v>
       </c>
       <c r="S12">
-        <v>0.08882078572212479</v>
+        <v>0.08466882352812438</v>
       </c>
       <c r="T12">
-        <v>0.0888207857221248</v>
+        <v>0.08466882352812437</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>229.881485</v>
       </c>
       <c r="I13">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411343</v>
       </c>
       <c r="J13">
-        <v>0.8603607001133609</v>
+        <v>0.8767859965411342</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>5853.250289210039</v>
+        <v>8201.33213858304</v>
       </c>
       <c r="R13">
-        <v>52679.25260289036</v>
+        <v>73811.98924724736</v>
       </c>
       <c r="S13">
-        <v>0.1166014231508812</v>
+        <v>0.141658254469893</v>
       </c>
       <c r="T13">
-        <v>0.1166014231508812</v>
+        <v>0.141658254469893</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1293,10 +1293,10 @@
         <v>0.029252</v>
       </c>
       <c r="I14">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="J14">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>0.9243617471506665</v>
+        <v>1.724455102398222</v>
       </c>
       <c r="R14">
-        <v>8.319255724355997</v>
+        <v>15.520095921584</v>
       </c>
       <c r="S14">
-        <v>1.841402466979574E-05</v>
+        <v>2.978580742611383E-05</v>
       </c>
       <c r="T14">
-        <v>1.841402466979574E-05</v>
+        <v>2.978580742611383E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1355,10 +1355,10 @@
         <v>0.029252</v>
       </c>
       <c r="I15">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="J15">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,10 +1373,10 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
         <v>1.420100380241778</v>
@@ -1385,10 +1385,10 @@
         <v>12.780903422176</v>
       </c>
       <c r="S15">
-        <v>2.828953439058325E-05</v>
+        <v>2.452881283647633E-05</v>
       </c>
       <c r="T15">
-        <v>2.828953439058325E-05</v>
+        <v>2.452881283647633E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1417,10 +1417,10 @@
         <v>0.029252</v>
       </c>
       <c r="I16">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="J16">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>0.7096142313137778</v>
+        <v>0.8193008717422222</v>
       </c>
       <c r="R16">
-        <v>6.386528081823999</v>
+        <v>7.37370784568</v>
       </c>
       <c r="S16">
-        <v>1.413608254747501E-05</v>
+        <v>1.415144874216945E-05</v>
       </c>
       <c r="T16">
-        <v>1.413608254747501E-05</v>
+        <v>1.415144874216945E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1479,10 +1479,10 @@
         <v>0.029252</v>
       </c>
       <c r="I17">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="J17">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>1.129477167677778</v>
+        <v>0.8281121819337779</v>
       </c>
       <c r="R17">
-        <v>10.1652945091</v>
+        <v>7.453009637404</v>
       </c>
       <c r="S17">
-        <v>2.25000877564437E-05</v>
+        <v>1.430364289797695E-05</v>
       </c>
       <c r="T17">
-        <v>2.25000877564437E-05</v>
+        <v>1.430364289797695E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1541,10 +1541,10 @@
         <v>0.029252</v>
       </c>
       <c r="I18">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="J18">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>0.5673609297573332</v>
+        <v>0.6237601280991111</v>
       </c>
       <c r="R18">
-        <v>5.106248367815999</v>
+        <v>5.613841152892</v>
       </c>
       <c r="S18">
-        <v>1.130228310445965E-05</v>
+        <v>1.077395348235502E-05</v>
       </c>
       <c r="T18">
-        <v>1.130228310445965E-05</v>
+        <v>1.077395348235502E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1603,10 +1603,10 @@
         <v>0.029252</v>
       </c>
       <c r="I19">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="J19">
-        <v>0.0001094793310549392</v>
+        <v>0.000111569420089753</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>0.7448154315688889</v>
+        <v>1.043604567448444</v>
       </c>
       <c r="R19">
-        <v>6.70333888412</v>
+        <v>9.392441107036001</v>
       </c>
       <c r="S19">
-        <v>1.483731858618181E-05</v>
+        <v>1.802575470466144E-05</v>
       </c>
       <c r="T19">
-        <v>1.483731858618181E-05</v>
+        <v>1.802575470466144E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.627781000000001</v>
+        <v>4.342301333333333</v>
       </c>
       <c r="H20">
-        <v>25.883343</v>
+        <v>13.026904</v>
       </c>
       <c r="I20">
-        <v>0.09687170371617471</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="J20">
-        <v>0.09687170371617469</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>817.912353260631</v>
+        <v>767.9581249573298</v>
       </c>
       <c r="R20">
-        <v>7361.211179345678</v>
+        <v>6911.623124615968</v>
       </c>
       <c r="S20">
-        <v>0.01629346767874965</v>
+        <v>0.01326462648374374</v>
       </c>
       <c r="T20">
-        <v>0.01629346767874965</v>
+        <v>0.01326462648374374</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.627781000000001</v>
+        <v>4.342301333333333</v>
       </c>
       <c r="H21">
-        <v>25.883343</v>
+        <v>13.026904</v>
       </c>
       <c r="I21">
-        <v>0.09687170371617471</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="J21">
-        <v>0.09687170371617469</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>1256.561781629576</v>
+        <v>632.4186832959501</v>
       </c>
       <c r="R21">
-        <v>11309.05603466618</v>
+        <v>5691.768149663551</v>
       </c>
       <c r="S21">
-        <v>0.02503171482092719</v>
+        <v>0.01092350916363821</v>
       </c>
       <c r="T21">
-        <v>0.02503171482092719</v>
+        <v>0.01092350916363821</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.627781000000001</v>
+        <v>4.342301333333333</v>
       </c>
       <c r="H22">
-        <v>25.883343</v>
+        <v>13.026904</v>
       </c>
       <c r="I22">
-        <v>0.09687170371617471</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="J22">
-        <v>0.09687170371617469</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>627.8951369744241</v>
+        <v>364.8623616608178</v>
       </c>
       <c r="R22">
-        <v>5651.056232769816</v>
+        <v>3283.76125494736</v>
       </c>
       <c r="S22">
-        <v>0.01250817288570386</v>
+        <v>0.006302118290207924</v>
       </c>
       <c r="T22">
-        <v>0.01250817288570386</v>
+        <v>0.006302118290207924</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.627781000000001</v>
+        <v>4.342301333333333</v>
       </c>
       <c r="H23">
-        <v>25.883343</v>
+        <v>13.026904</v>
       </c>
       <c r="I23">
-        <v>0.09687170371617471</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="J23">
-        <v>0.09687170371617469</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>999.4067052397251</v>
+        <v>368.7863358157343</v>
       </c>
       <c r="R23">
-        <v>8994.660347157525</v>
+        <v>3319.077022341608</v>
       </c>
       <c r="S23">
-        <v>0.01990898020409314</v>
+        <v>0.006369895490299041</v>
       </c>
       <c r="T23">
-        <v>0.01990898020409314</v>
+        <v>0.006369895490299041</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.627781000000001</v>
+        <v>4.342301333333333</v>
       </c>
       <c r="H24">
-        <v>25.883343</v>
+        <v>13.026904</v>
       </c>
       <c r="I24">
-        <v>0.09687170371617471</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="J24">
-        <v>0.09687170371617469</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>502.023709479966</v>
+        <v>277.7814613624649</v>
       </c>
       <c r="R24">
-        <v>4518.213385319694</v>
+        <v>2500.033152262184</v>
       </c>
       <c r="S24">
-        <v>0.0100007134649198</v>
+        <v>0.004798005528343518</v>
       </c>
       <c r="T24">
-        <v>0.0100007134649198</v>
+        <v>0.004798005528343518</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.627781000000001</v>
+        <v>4.342301333333333</v>
       </c>
       <c r="H25">
-        <v>25.883343</v>
+        <v>13.026904</v>
       </c>
       <c r="I25">
-        <v>0.09687170371617471</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="J25">
-        <v>0.09687170371617469</v>
+        <v>0.04968563260101477</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>659.0425710033701</v>
+        <v>464.7523763883636</v>
       </c>
       <c r="R25">
-        <v>5931.38313903033</v>
+        <v>4182.771387495272</v>
       </c>
       <c r="S25">
-        <v>0.01312865466178104</v>
+        <v>0.00802747764478234</v>
       </c>
       <c r="T25">
-        <v>0.01312865466178104</v>
+        <v>0.00802747764478234</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.06517299999999999</v>
+        <v>0.03572933333333334</v>
       </c>
       <c r="H26">
-        <v>0.195519</v>
+        <v>0.107188</v>
       </c>
       <c r="I26">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="J26">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>6.178390689222999</v>
+        <v>6.318914724321778</v>
       </c>
       <c r="R26">
-        <v>55.60551620300699</v>
+        <v>56.870232518896</v>
       </c>
       <c r="S26">
-        <v>0.0001230784797420276</v>
+        <v>0.0001091440286609562</v>
       </c>
       <c r="T26">
-        <v>0.0001230784797420277</v>
+        <v>0.0001091440286609561</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.06517299999999999</v>
+        <v>0.03572933333333334</v>
       </c>
       <c r="H27">
-        <v>0.195519</v>
+        <v>0.107188</v>
       </c>
       <c r="I27">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="J27">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>9.491884529074666</v>
+        <v>5.203668793838222</v>
       </c>
       <c r="R27">
-        <v>85.42696076167199</v>
+        <v>46.833019144544</v>
       </c>
       <c r="S27">
-        <v>0.000189085924877357</v>
+        <v>8.98808420045202E-05</v>
       </c>
       <c r="T27">
-        <v>0.000189085924877357</v>
+        <v>8.988084200452018E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.06517299999999999</v>
+        <v>0.03572933333333334</v>
       </c>
       <c r="H28">
-        <v>0.195519</v>
+        <v>0.107188</v>
       </c>
       <c r="I28">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="J28">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>4.743028336258666</v>
+        <v>3.002161282657778</v>
       </c>
       <c r="R28">
-        <v>42.687255026328</v>
+        <v>27.01945154392</v>
       </c>
       <c r="S28">
-        <v>9.448491465881875E-05</v>
+        <v>5.185510350662038E-05</v>
       </c>
       <c r="T28">
-        <v>9.448491465881875E-05</v>
+        <v>5.185510350662037E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.06517299999999999</v>
+        <v>0.03572933333333334</v>
       </c>
       <c r="H29">
-        <v>0.195519</v>
+        <v>0.107188</v>
       </c>
       <c r="I29">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="J29">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>7.549372567591666</v>
+        <v>3.034448535386223</v>
       </c>
       <c r="R29">
-        <v>67.944353108325</v>
+        <v>27.310036818476</v>
       </c>
       <c r="S29">
-        <v>0.0001503895343242211</v>
+        <v>5.241278801272917E-05</v>
       </c>
       <c r="T29">
-        <v>0.0001503895343242211</v>
+        <v>5.241278801272916E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.06517299999999999</v>
+        <v>0.03572933333333334</v>
       </c>
       <c r="H30">
-        <v>0.195519</v>
+        <v>0.107188</v>
       </c>
       <c r="I30">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="J30">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>3.792213921277999</v>
+        <v>2.285642028260889</v>
       </c>
       <c r="R30">
-        <v>34.129925291502</v>
+        <v>20.570778254348</v>
       </c>
       <c r="S30">
-        <v>7.554393170726262E-05</v>
+        <v>3.947895958794853E-05</v>
       </c>
       <c r="T30">
-        <v>7.554393170726263E-05</v>
+        <v>3.947895958794853E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.06517299999999999</v>
+        <v>0.03572933333333334</v>
       </c>
       <c r="H31">
-        <v>0.195519</v>
+        <v>0.107188</v>
       </c>
       <c r="I31">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="J31">
-        <v>0.0007317547288571944</v>
+        <v>0.0004088234308963643</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>4.978311512543333</v>
+        <v>3.824076520431556</v>
       </c>
       <c r="R31">
-        <v>44.80480361289001</v>
+        <v>34.416688683884</v>
       </c>
       <c r="S31">
-        <v>9.917194354750723E-05</v>
+        <v>6.605170912358988E-05</v>
       </c>
       <c r="T31">
-        <v>9.917194354750726E-05</v>
+        <v>6.605170912358988E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.07944766666666667</v>
+        <v>0.005356666666666667</v>
       </c>
       <c r="H32">
-        <v>0.238343</v>
+        <v>0.01607</v>
       </c>
       <c r="I32">
-        <v>0.0008920289963635775</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="J32">
-        <v>0.0008920289963635774</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N32">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q32">
-        <v>7.531626962297666</v>
+        <v>0.9473538047155555</v>
       </c>
       <c r="R32">
-        <v>67.784642660679</v>
+        <v>8.526184242440001</v>
       </c>
       <c r="S32">
-        <v>0.000150036027686077</v>
+        <v>1.636325466079752E-05</v>
       </c>
       <c r="T32">
-        <v>0.000150036027686077</v>
+        <v>1.636325466079752E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.07944766666666667</v>
+        <v>0.005356666666666667</v>
       </c>
       <c r="H33">
-        <v>0.238343</v>
+        <v>0.01607</v>
       </c>
       <c r="I33">
-        <v>0.0008920289963635775</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="J33">
-        <v>0.0008920289963635774</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q33">
-        <v>11.57086643402044</v>
+        <v>0.7801522326844443</v>
       </c>
       <c r="R33">
-        <v>104.137797906184</v>
+        <v>7.02137009416</v>
       </c>
       <c r="S33">
-        <v>0.0002305009057587441</v>
+        <v>1.34752503173176E-05</v>
       </c>
       <c r="T33">
-        <v>0.0002305009057587442</v>
+        <v>1.34752503173176E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.07944766666666667</v>
+        <v>0.005356666666666667</v>
       </c>
       <c r="H34">
-        <v>0.238343</v>
+        <v>0.01607</v>
       </c>
       <c r="I34">
-        <v>0.0008920289963635775</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="J34">
-        <v>0.0008920289963635774</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N34">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q34">
-        <v>5.781881058868445</v>
+        <v>0.4500945237555556</v>
       </c>
       <c r="R34">
-        <v>52.036929529816</v>
+        <v>4.0508507138</v>
       </c>
       <c r="S34">
-        <v>0.0001151796910506234</v>
+        <v>7.774298553489098E-06</v>
       </c>
       <c r="T34">
-        <v>0.0001151796910506234</v>
+        <v>7.774298553489098E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.07944766666666667</v>
+        <v>0.005356666666666667</v>
       </c>
       <c r="H35">
-        <v>0.238343</v>
+        <v>0.01607</v>
       </c>
       <c r="I35">
-        <v>0.0008920289963635775</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="J35">
-        <v>0.0008920289963635774</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N35">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q35">
-        <v>9.202891309169445</v>
+        <v>0.4549351416544445</v>
       </c>
       <c r="R35">
-        <v>82.826021782525</v>
+        <v>4.09441627489</v>
       </c>
       <c r="S35">
-        <v>0.0001833289489995235</v>
+        <v>7.857908565926761E-06</v>
       </c>
       <c r="T35">
-        <v>0.0001833289489995235</v>
+        <v>7.857908565926761E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.07944766666666667</v>
+        <v>0.005356666666666667</v>
       </c>
       <c r="H36">
-        <v>0.238343</v>
+        <v>0.01607</v>
       </c>
       <c r="I36">
-        <v>0.0008920289963635775</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="J36">
-        <v>0.0008920289963635774</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N36">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q36">
-        <v>4.622812323299333</v>
+        <v>0.3426714501077778</v>
       </c>
       <c r="R36">
-        <v>41.605310909694</v>
+        <v>3.08404305097</v>
       </c>
       <c r="S36">
-        <v>9.209011561487169E-05</v>
+        <v>5.918823754322618E-06</v>
       </c>
       <c r="T36">
-        <v>9.209011561487169E-05</v>
+        <v>5.918823754322618E-06</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.07944766666666667</v>
+        <v>0.005356666666666667</v>
       </c>
       <c r="H37">
-        <v>0.238343</v>
+        <v>0.01607</v>
       </c>
       <c r="I37">
-        <v>0.0008920289963635775</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="J37">
-        <v>0.0008920289963635774</v>
+        <v>6.129223919192982E-05</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N37">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q37">
-        <v>6.068697675592222</v>
+        <v>0.5733189320011112</v>
       </c>
       <c r="R37">
-        <v>54.61827908033001</v>
+        <v>5.159870388010001</v>
       </c>
       <c r="S37">
-        <v>0.0001208933072537376</v>
+        <v>9.902703340076214E-06</v>
       </c>
       <c r="T37">
-        <v>0.0001208933072537376</v>
+        <v>9.902703340076214E-06</v>
       </c>
     </row>
   </sheetData>
